--- a/spec/fixtures/files/reduced_categories_table_wrong_header.xlsx
+++ b/spec/fixtures/files/reduced_categories_table_wrong_header.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Demographics" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CIN-CLA" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Absence-Exclusion" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Attainment" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="IA_Demographics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="IA_CIN-CLA" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="IA_Absence-Exclusion" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="IA_Attainment" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Attainment!$A$1:$Y$180</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Demographics!$A$5:$AM$40</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">IA_Attainment!$A$1:$Y$180</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">IA_Demographics!$A$5:$AM$40</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -5218,9 +5218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5234,7 +5234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22943160" y="8239320"/>
-          <a:ext cx="27360" cy="8280"/>
+          <a:ext cx="27000" cy="7920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5260,7 +5260,7 @@
   </sheetPr>
   <dimension ref="A1:AM1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
@@ -14426,7 +14426,7 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
